--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H2">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I2">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J2">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>12.531022</v>
+        <v>12.66643366666667</v>
       </c>
       <c r="N2">
-        <v>37.593066</v>
+        <v>37.999301</v>
       </c>
       <c r="O2">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="P2">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="Q2">
-        <v>68.27295512793</v>
+        <v>38.57559417682145</v>
       </c>
       <c r="R2">
-        <v>614.4565961513699</v>
+        <v>347.180347591393</v>
       </c>
       <c r="S2">
-        <v>0.02116522797562734</v>
+        <v>0.01088047194888172</v>
       </c>
       <c r="T2">
-        <v>0.02116522797562734</v>
+        <v>0.01088047194888172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H3">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I3">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J3">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>111.549455</v>
       </c>
       <c r="O3">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="P3">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="Q3">
-        <v>202.585522972775</v>
+        <v>113.2412016401461</v>
       </c>
       <c r="R3">
-        <v>1823.269706754975</v>
+        <v>1019.170814761315</v>
       </c>
       <c r="S3">
-        <v>0.06280332776347593</v>
+        <v>0.03194034321948562</v>
       </c>
       <c r="T3">
-        <v>0.06280332776347593</v>
+        <v>0.03194034321948562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.448315</v>
+        <v>3.045497666666666</v>
       </c>
       <c r="H4">
-        <v>16.344945</v>
+        <v>9.136493</v>
       </c>
       <c r="I4">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423571</v>
       </c>
       <c r="J4">
-        <v>0.1199618029178375</v>
+        <v>0.06184575966423572</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.310055</v>
+        <v>22.14777066666666</v>
       </c>
       <c r="N4">
-        <v>63.930165</v>
+        <v>66.44331199999999</v>
       </c>
       <c r="O4">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="P4">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="Q4">
-        <v>116.103892307325</v>
+        <v>67.45098388720176</v>
       </c>
       <c r="R4">
-        <v>1044.935030765925</v>
+        <v>607.0588549848159</v>
       </c>
       <c r="S4">
-        <v>0.03599324717873428</v>
+        <v>0.01902494449586838</v>
       </c>
       <c r="T4">
-        <v>0.03599324717873428</v>
+        <v>0.01902494449586838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I5">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J5">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>12.531022</v>
+        <v>12.66643366666667</v>
       </c>
       <c r="N5">
-        <v>37.593066</v>
+        <v>37.999301</v>
       </c>
       <c r="O5">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="P5">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="Q5">
-        <v>392.0018627952934</v>
+        <v>396.2378800632823</v>
       </c>
       <c r="R5">
-        <v>3528.01676515764</v>
+        <v>3566.14092056954</v>
       </c>
       <c r="S5">
-        <v>0.1215240907235727</v>
+        <v>0.1117612114890861</v>
       </c>
       <c r="T5">
-        <v>0.1215240907235727</v>
+        <v>0.1117612114890861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I6">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J6">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>111.549455</v>
       </c>
       <c r="O6">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="P6">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="Q6">
         <v>1163.182437787856</v>
@@ -818,10 +818,10 @@
         <v>10468.6419400907</v>
       </c>
       <c r="S6">
-        <v>0.3605969805597951</v>
+        <v>0.3280824095092511</v>
       </c>
       <c r="T6">
-        <v>0.360596980559795</v>
+        <v>0.3280824095092511</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>93.84754000000001</v>
       </c>
       <c r="I7">
-        <v>0.6887829905701046</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="J7">
-        <v>0.6887829905701045</v>
+        <v>0.6352626115862781</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.310055</v>
+        <v>22.14777066666666</v>
       </c>
       <c r="N7">
-        <v>63.930165</v>
+        <v>66.44331199999999</v>
       </c>
       <c r="O7">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="P7">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="Q7">
-        <v>666.6320796715667</v>
+        <v>692.8379311836088</v>
       </c>
       <c r="R7">
-        <v>5999.6887170441</v>
+        <v>6235.54138065248</v>
       </c>
       <c r="S7">
-        <v>0.2066619192867369</v>
+        <v>0.1954189905879408</v>
       </c>
       <c r="T7">
-        <v>0.2066619192867369</v>
+        <v>0.1954189905879408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H8">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I8">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J8">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>12.531022</v>
+        <v>12.66643366666667</v>
       </c>
       <c r="N8">
-        <v>37.593066</v>
+        <v>37.999301</v>
       </c>
       <c r="O8">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="P8">
-        <v>0.1764330600309793</v>
+        <v>0.1759291503241684</v>
       </c>
       <c r="Q8">
-        <v>108.8476316175733</v>
+        <v>188.9252329283526</v>
       </c>
       <c r="R8">
-        <v>979.62868455816</v>
+        <v>1700.327096355173</v>
       </c>
       <c r="S8">
-        <v>0.03374374133177926</v>
+        <v>0.05328746688620058</v>
       </c>
       <c r="T8">
-        <v>0.03374374133177926</v>
+        <v>0.05328746688620058</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H9">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I9">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J9">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>111.549455</v>
       </c>
       <c r="O9">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="P9">
-        <v>0.5235277082863639</v>
+        <v>0.5164516272884614</v>
       </c>
       <c r="Q9">
-        <v>322.9822751084222</v>
+        <v>554.6024851590239</v>
       </c>
       <c r="R9">
-        <v>2906.8404759758</v>
+        <v>4991.422366431215</v>
       </c>
       <c r="S9">
-        <v>0.1001273999630929</v>
+        <v>0.1564288745597247</v>
       </c>
       <c r="T9">
-        <v>0.1001273999630929</v>
+        <v>0.1564288745597247</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.686253333333333</v>
+        <v>14.91542433333333</v>
       </c>
       <c r="H10">
-        <v>26.05876</v>
+        <v>44.746273</v>
       </c>
       <c r="I10">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="J10">
-        <v>0.1912552065120579</v>
+        <v>0.3028916287494862</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.310055</v>
+        <v>22.14777066666666</v>
       </c>
       <c r="N10">
-        <v>63.930165</v>
+        <v>66.44331199999999</v>
       </c>
       <c r="O10">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="P10">
-        <v>0.3000392316826569</v>
+        <v>0.3076192223873702</v>
       </c>
       <c r="Q10">
-        <v>185.1045362772666</v>
+        <v>330.3433975306862</v>
       </c>
       <c r="R10">
-        <v>1665.9408264954</v>
+        <v>2973.090577776176</v>
       </c>
       <c r="S10">
-        <v>0.05738406521718573</v>
+        <v>0.09317528730356098</v>
       </c>
       <c r="T10">
-        <v>0.05738406521718573</v>
+        <v>0.09317528730356098</v>
       </c>
     </row>
   </sheetData>
